--- a/fgconfgen_req/req_DTHFW01_20200907_1810.conf.xlsx
+++ b/fgconfgen_req/req_DTHFW01_20200907_1810.conf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JackyYick\Desktop\ykk-work-pre\ykk-projects\201903_pyvdomcutter\fgconfgen_req\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB88169D-292D-423E-8D5A-A59E9059759F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED07779-2373-4B86-B83A-905BCF12178C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1695" yWindow="3540" windowWidth="21600" windowHeight="11145" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01int" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7726" uniqueCount="1905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7733" uniqueCount="1906">
   <si>
     <t>name</t>
   </si>
@@ -5754,6 +5754,9 @@
   </si>
   <si>
     <t>net_10.170.53.0/24 net_172.16.64.0/24</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -31786,8 +31789,8 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31870,6 +31873,9 @@
       <c r="A2" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1903</v>
       </c>
@@ -31885,8 +31891,29 @@
       <c r="H2" s="3" t="s">
         <v>1867</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1905</v>
+      </c>
       <c r="K2" s="3" t="s">
         <v>1868</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>1905</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1905</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>1905</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>1905</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>1905</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>1874</v>
@@ -31896,6 +31923,9 @@
       <c r="A3" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>1842</v>
       </c>
@@ -31922,6 +31952,9 @@
       <c r="A4" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>1843</v>
       </c>
@@ -31948,6 +31981,9 @@
       <c r="A5" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>1844</v>
       </c>
@@ -31974,6 +32010,9 @@
       <c r="A6" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>1845</v>
       </c>
@@ -32000,6 +32039,9 @@
       <c r="A7" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>1847</v>
       </c>
@@ -32026,6 +32068,9 @@
       <c r="A8" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>1875</v>
       </c>
@@ -32052,6 +32097,9 @@
       <c r="A9" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>1876</v>
       </c>
@@ -32078,6 +32126,9 @@
       <c r="A10" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>1877</v>
       </c>
@@ -32104,6 +32155,9 @@
       <c r="A11" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>1878</v>
       </c>
@@ -32130,6 +32184,9 @@
       <c r="A12" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>1879</v>
       </c>
@@ -32156,6 +32213,9 @@
       <c r="A13" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>1880</v>
       </c>
@@ -32182,6 +32242,9 @@
       <c r="A14" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>1881</v>
       </c>
@@ -32208,6 +32271,9 @@
       <c r="A15" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>1882</v>
       </c>
@@ -32234,6 +32300,9 @@
       <c r="A16" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>1855</v>
       </c>
@@ -32260,6 +32329,9 @@
       <c r="A17" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>1883</v>
       </c>
@@ -32286,6 +32358,9 @@
       <c r="A18" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>1884</v>
       </c>
@@ -32312,6 +32387,9 @@
       <c r="A19" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>1885</v>
       </c>
@@ -32338,6 +32416,9 @@
       <c r="A20" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>1886</v>
       </c>
@@ -32364,6 +32445,9 @@
       <c r="A21" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>1887</v>
       </c>
@@ -32390,6 +32474,9 @@
       <c r="A22" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>1888</v>
       </c>
@@ -32416,6 +32503,9 @@
       <c r="A23" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
       <c r="C23" s="2" t="s">
         <v>1889</v>
       </c>
@@ -32442,6 +32532,9 @@
       <c r="A24" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
       <c r="C24" s="2" t="s">
         <v>1890</v>
       </c>
@@ -32468,6 +32561,9 @@
       <c r="A25" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>1891</v>
       </c>
@@ -32494,6 +32590,9 @@
       <c r="A26" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
       <c r="C26" s="2" t="s">
         <v>1892</v>
       </c>
@@ -32520,6 +32619,9 @@
       <c r="A27" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>1893</v>
       </c>
@@ -32546,6 +32648,9 @@
       <c r="A28" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
       <c r="C28" s="2" t="s">
         <v>1894</v>
       </c>
@@ -32572,6 +32677,9 @@
       <c r="A29" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
       <c r="C29" s="2" t="s">
         <v>1895</v>
       </c>
@@ -32598,6 +32706,9 @@
       <c r="A30" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
       <c r="C30" s="2" t="s">
         <v>1896</v>
       </c>
@@ -32624,6 +32735,9 @@
       <c r="A31" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
       <c r="C31" s="2" t="s">
         <v>1897</v>
       </c>
@@ -32650,6 +32764,9 @@
       <c r="A32" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
       <c r="C32" s="2" t="s">
         <v>1898</v>
       </c>
@@ -32676,6 +32793,9 @@
       <c r="A33" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
       <c r="C33" s="2" t="s">
         <v>1899</v>
       </c>
@@ -32702,6 +32822,9 @@
       <c r="A34" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
       <c r="C34" s="2" t="s">
         <v>1900</v>
       </c>
@@ -32728,6 +32851,9 @@
       <c r="A35" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
       <c r="C35" s="2" t="s">
         <v>1901</v>
       </c>
@@ -32754,6 +32880,9 @@
       <c r="A36" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
       <c r="C36" s="2" t="s">
         <v>1902</v>
       </c>
@@ -32779,6 +32908,9 @@
     <row r="37" spans="1:17" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>143</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>1903</v>
